--- a/biology/Zoologie/Heterometra/Heterometra.xlsx
+++ b/biology/Zoologie/Heterometra/Heterometra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterometra est un genre de crinoïdes de la famille des Himerometridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des comatules de grande taille, portant plus de dix bras[1]. Ce sont des Himerometridae avec des cirres allant jusqu'à ~40 mm avec jusqu'à 45 segments, incurvés distalement, avec tous les segments courts, ou les segments distaux plus courts que les proximaux. Les pinnules proximales augmentent en longueur et en force de P1 à P3, allongées, minces ou plutôt robustes, et allant de lisses à carénées, à prismatiques avec des segments portant des épines ou des brides distales[1]. 
-On trouve les espèces de ce genre dans l'indo-pacifique, de la zone intertidale à plus de 111 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des comatules de grande taille, portant plus de dix bras. Ce sont des Himerometridae avec des cirres allant jusqu'à ~40 mm avec jusqu'à 45 segments, incurvés distalement, avec tous les segments courts, ou les segments distaux plus courts que les proximaux. Les pinnules proximales augmentent en longueur et en force de P1 à P3, allongées, minces ou plutôt robustes, et allant de lisses à carénées, à prismatiques avec des segments portant des épines ou des brides distales. 
+On trouve les espèces de ce genre dans l'indo-pacifique, de la zone intertidale à plus de 111 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 novembre 2014) :
 Heterometra affinis (Hartlaub, 1890)
 Heterometra africana (AH Clark, 1911)
 Heterometra amboinae (AH Clark, 1912)
